--- a/medicine/Mort/Peine_de_mort_en_Virginie/Peine_de_mort_en_Virginie.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Virginie/Peine_de_mort_en_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine de mort en Virginie, supprimée en février 2021, était une condamnation légale dans cet État, pratiquée depuis 1608. La dernière exécution y remonte à 2017.
 </t>
@@ -511,12 +523,14 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pendaison fut la méthode en vigueur dans cet État jusqu'en 1909, date à laquelle elle fut remplacée par la chaise électrique. L'injection létale fut adoptée comme méthode alternative à cette dernière en 1994, les condamnés ayant toujours le choix du mode d'exécution.
-Alors que dans bien des États, les condamnés à mort sont presque assurés de mourir de vieillesse dans le couloir de la mort, en Virginie, la grande majorité des peines prononcés ont été appliqués. En tout près de 70 % des condamnations à mort ont été mises à exécution contre près de 50 % au Texas[1]. Ces criminels sont rarement exécutés plus de 12 ans après leur crime alors que cette durée va jusqu'à plus de 35 ans dans certains États. 
+Alors que dans bien des États, les condamnés à mort sont presque assurés de mourir de vieillesse dans le couloir de la mort, en Virginie, la grande majorité des peines prononcés ont été appliqués. En tout près de 70 % des condamnations à mort ont été mises à exécution contre près de 50 % au Texas. Ces criminels sont rarement exécutés plus de 12 ans après leur crime alors que cette durée va jusqu'à plus de 35 ans dans certains États. 
 L'ancien gouverneur démocrate Tim Kaine était personnellement opposé à la peine de mort mais l'appliquait malgré tout, estimant que c'est la responsabilité du législateur.
-Le 22 février 2021, la Virginie, qui « totalisait depuis 1608, date de son premier condamné à mort, le plus grand nombre d’exécutions du pays », est le vingt-troisième État — et premier État sudiste — à voter la suppression de la peine de mort[2].
+Le 22 février 2021, la Virginie, qui « totalisait depuis 1608, date de son premier condamné à mort, le plus grand nombre d’exécutions du pays », est le vingt-troisième État — et premier État sudiste — à voter la suppression de la peine de mort.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Exécutions depuis 1975</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Jarratt au Greensville Correctional Center (en).
 </t>
@@ -576,9 +592,11 @@
           <t>Condamnés à mort</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2019 le couloir de la mort de Virginie compte trois condamnés. Depuis 1975, 11 condamnés ont été graciés en Virginie[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2019 le couloir de la mort de Virginie compte trois condamnés. Depuis 1975, 11 condamnés ont été graciés en Virginie,.
 </t>
         </is>
       </c>
